--- a/Doc/Wikberg_OliveiraPlanningProjetCourant.xlsx
+++ b/Doc/Wikberg_OliveiraPlanningProjetCourant.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Creation Base de donnée</t>
   </si>
@@ -36,13 +36,22 @@
     <t>Remplissage</t>
   </si>
   <si>
-    <t>Slider + Lightbox</t>
-  </si>
-  <si>
     <t>pour presentation des images</t>
   </si>
   <si>
-    <t>Base de l'index</t>
+    <t>Base de l'index (web)</t>
+  </si>
+  <si>
+    <t>Page Weapons (web)</t>
+  </si>
+  <si>
+    <t>Finalisation Index (web)</t>
+  </si>
+  <si>
+    <t>Slider + Lightbox (jQuery)</t>
+  </si>
+  <si>
+    <t>Finalisation slider etc (jQuery)</t>
   </si>
 </sst>
 </file>
@@ -815,15 +824,17 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -864,9 +875,11 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="33" t="s">
         <v>2</v>
@@ -879,7 +892,9 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H3" s="5"/>
       <c r="I3" s="34"/>
     </row>
@@ -890,9 +905,11 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="45" t="s">
         <v>3</v>
@@ -905,7 +922,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>

--- a/Doc/Wikberg_OliveiraPlanningProjetCourant.xlsx
+++ b/Doc/Wikberg_OliveiraPlanningProjetCourant.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Creation Base de donnée</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Finalisation slider etc (jQuery)</t>
+  </si>
+  <si>
+    <t>Début C#</t>
   </si>
 </sst>
 </file>
@@ -824,7 +827,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1029,9 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
